--- a/src/test/resources/ManagementQuota.xlsx
+++ b/src/test/resources/ManagementQuota.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
   <si>
     <t>Male</t>
   </si>
@@ -660,6 +660,18 @@
   </si>
   <si>
     <t>080030</t>
+  </si>
+  <si>
+    <t>Kieth Daugherty</t>
+  </si>
+  <si>
+    <t>chastity.wyman@hotmail.com</t>
+  </si>
+  <si>
+    <t>7639810725</t>
+  </si>
+  <si>
+    <t>339568</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1052,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -1052,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
